--- a/Documentos/ProductBacklog.xlsx
+++ b/Documentos/ProductBacklog.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Practicas Cesar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\practicas\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B21443D-EF9D-45CC-8D4A-85D62173C224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
+    <sheet name="Caso de uso" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Item</t>
   </si>
@@ -162,12 +164,66 @@
   </si>
   <si>
     <t>Falta definir que campos</t>
+  </si>
+  <si>
+    <t>Estabilidad</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Urgencia</t>
+  </si>
+  <si>
+    <t>Importancia</t>
+  </si>
+  <si>
+    <t>Otros Datos</t>
+  </si>
+  <si>
+    <t>Curso Alternos</t>
+  </si>
+  <si>
+    <t>Curso Normal</t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t>Propósito</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>PostCondición</t>
+  </si>
+  <si>
+    <t>Precondicion</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Actores</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Casos de Uso</t>
+  </si>
+  <si>
+    <t>depende del usuario: PDF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -264,11 +320,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -287,38 +380,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,11 +711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -615,7 +727,7 @@
     <col min="5" max="5" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="14" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="9" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -638,21 +750,21 @@
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="3">
@@ -664,10 +776,10 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="3">
         <v>2</v>
       </c>
@@ -677,16 +789,16 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3">
@@ -698,10 +810,10 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="3">
         <v>2</v>
       </c>
@@ -713,10 +825,10 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="3">
         <v>3</v>
       </c>
@@ -726,8 +838,8 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="3">
         <v>2</v>
       </c>
@@ -745,8 +857,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
@@ -762,14 +874,14 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="3">
@@ -781,10 +893,10 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="3">
         <v>2</v>
       </c>
@@ -794,8 +906,8 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="3">
         <v>2</v>
       </c>
@@ -811,12 +923,12 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="9">
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="17">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="18" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="3">
@@ -830,10 +942,10 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="17"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="3">
         <v>2</v>
       </c>
@@ -841,14 +953,14 @@
         <v>23</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="3">
         <v>3</v>
       </c>
@@ -856,16 +968,16 @@
         <v>25</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B16" s="17"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9">
+      <c r="B16" s="13"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="17">
         <v>4</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="3">
@@ -879,10 +991,10 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="3">
         <v>2</v>
       </c>
@@ -894,8 +1006,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="6">
         <v>5</v>
       </c>
@@ -913,7 +1025,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="17"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="10" t="s">
         <v>29</v>
       </c>
@@ -934,8 +1046,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="6">
         <v>2</v>
       </c>
@@ -997,4 +1109,281 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20DADA6-8946-4A24-9BC7-169455EEA07F}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="19">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="19">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="19">
+        <v>4</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19">
+        <v>5</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="19">
+        <v>6</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="19">
+        <v>7</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="19">
+        <v>8</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="19">
+        <v>10</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="19">
+        <v>2</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="19">
+        <v>3</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="19">
+        <v>4</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="19">
+        <v>5</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>